--- a/msx3gen/files/msx_gen3_2025.xlsx
+++ b/msx3gen/files/msx_gen3_2025.xlsx
@@ -112,20 +112,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>V9958+</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VDP/GPU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8MB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8MB
-512KB</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -171,32 +158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>従来MSXの最終形態</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウライ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>従来MSXの進化形態</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウライ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シンカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新MSX</t>
     <rPh sb="0" eb="1">
       <t>シン</t>
@@ -276,21 +237,6 @@
     <t>新MSXメニコア</t>
     <rPh sb="0" eb="1">
       <t>シン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>V9958+
-V9990
-※V9990は実チップを脇に載せる</t>
-    <rPh sb="21" eb="22">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ワキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -328,12 +274,58 @@
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>8bit MSXの最終形態</t>
+    <rPh sb="9" eb="11">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16bit MSXの最終形態</t>
+    <rPh sb="10" eb="12">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新生V9978</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新生V9978??
+※turboR+よりスペック下げる？</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64MB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64MB??</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +384,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -672,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,9 +734,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -759,6 +772,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -792,15 +820,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>119903</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>8965</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1174938</xdr:colOff>
+          <xdr:colOff>1181100</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>100853</xdr:rowOff>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1114,7 +1142,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1156,10 +1184,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>1</v>
@@ -1168,75 +1196,75 @@
         <v>2</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:27" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="C8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="J8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="17" t="s">
+      <c r="O8" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -1255,44 +1283,44 @@
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="17" t="s">
+      <c r="O9" s="18" t="s">
         <v>27</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -1311,43 +1339,43 @@
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="17" t="s">
+      <c r="G10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="22" t="s">
+      <c r="M10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="21" t="s">
         <v>8</v>
       </c>
       <c r="P10" s="5"/>
@@ -1367,43 +1395,43 @@
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="22" t="s">
+      <c r="M11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="21" t="s">
         <v>8</v>
       </c>
       <c r="P11" s="5"/>
@@ -1423,43 +1451,43 @@
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="22" t="s">
+      <c r="M12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="21" t="s">
         <v>8</v>
       </c>
       <c r="P12" s="5"/>
@@ -1479,43 +1507,43 @@
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="C13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="22" t="s">
+      <c r="G13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="21" t="s">
         <v>8</v>
       </c>
       <c r="P13" s="5"/>
@@ -1535,43 +1563,43 @@
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="O14" s="28" t="s">
+      <c r="G14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="27" t="s">
         <v>8</v>
       </c>
       <c r="P14" s="5"/>

--- a/msx3gen/files/msx_gen3_2025.xlsx
+++ b/msx3gen/files/msx_gen3_2025.xlsx
@@ -12,10 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="6915"/>
   </bookViews>
   <sheets>
-    <sheet name="2025年2月26日" sheetId="9" r:id="rId1"/>
+    <sheet name="2025年3月2日" sheetId="10" r:id="rId1"/>
+    <sheet name="2025年2月26日" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025年2月26日'!$A$1:$P$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2025年2月26日'!$A$1:$P$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2025年3月2日'!$A$1:$P$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="54">
   <si>
     <t>MSX3</t>
     <phoneticPr fontId="1"/>
@@ -320,12 +322,28 @@
     <t>64MB??</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>V9958+
+または
+新生V9978
+(どちらにするか検討中)</t>
+    <rPh sb="11" eb="13">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +426,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -688,7 +714,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,6 +812,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -814,6 +846,63 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1181100</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8193" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8193"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1142,7 +1231,616 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="6" max="6" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:27" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:27" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="2:27" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="2:27" ht="27" x14ac:dyDescent="0.15">
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="2:27" ht="27" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="2:27" ht="27" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="2:27" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="2:27" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B21" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="42" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="8193" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="8193" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:AA21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/msx3gen/files/msx_gen3_2025.xlsx
+++ b/msx3gen/files/msx_gen3_2025.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="55">
   <si>
     <t>MSX3</t>
     <phoneticPr fontId="1"/>
@@ -336,6 +336,10 @@
     <rPh sb="29" eb="30">
       <t>チュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8MB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1231,7 +1235,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1332,7 +1336,7 @@
         <v>53</v>
       </c>
       <c r="H8" s="29" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>22</v>
@@ -1388,7 +1392,7 @@
         <v>49</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>22</v>
